--- a/datasheets/set/recursions_s_raw_0.xlsx
+++ b/datasheets/set/recursions_s_raw_0.xlsx
@@ -484,13 +484,13 @@
         <v>8192</v>
       </c>
       <c r="E2" t="n">
-        <v>7048</v>
+        <v>6641</v>
       </c>
       <c r="F2" t="n">
-        <v>6230</v>
+        <v>3965</v>
       </c>
       <c r="G2" t="n">
-        <v>1896</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="3">
@@ -507,13 +507,13 @@
         <v>8192</v>
       </c>
       <c r="E3" t="n">
-        <v>8200</v>
+        <v>7588</v>
       </c>
       <c r="F3" t="n">
-        <v>6192</v>
+        <v>5881</v>
       </c>
       <c r="G3" t="n">
-        <v>1528</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="4">
@@ -527,16 +527,16 @@
         <v>8192</v>
       </c>
       <c r="D4" t="n">
-        <v>8192</v>
+        <v>7759</v>
       </c>
       <c r="E4" t="n">
-        <v>8192</v>
+        <v>7607</v>
       </c>
       <c r="F4" t="n">
-        <v>6028</v>
+        <v>4094</v>
       </c>
       <c r="G4" t="n">
-        <v>1279</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="5">
@@ -550,16 +550,16 @@
         <v>8192</v>
       </c>
       <c r="D5" t="n">
-        <v>8203</v>
+        <v>8195</v>
       </c>
       <c r="E5" t="n">
         <v>8192</v>
       </c>
       <c r="F5" t="n">
-        <v>4083</v>
+        <v>6056</v>
       </c>
       <c r="G5" t="n">
-        <v>1021</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="6">
@@ -573,16 +573,16 @@
         <v>8192</v>
       </c>
       <c r="D6" t="n">
-        <v>8198</v>
+        <v>8192</v>
       </c>
       <c r="E6" t="n">
-        <v>8192</v>
+        <v>6616</v>
       </c>
       <c r="F6" t="n">
-        <v>6840</v>
+        <v>5922</v>
       </c>
       <c r="G6" t="n">
-        <v>516</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="7">
@@ -599,13 +599,13 @@
         <v>8192</v>
       </c>
       <c r="E7" t="n">
-        <v>8198</v>
+        <v>8192</v>
       </c>
       <c r="F7" t="n">
-        <v>6081</v>
+        <v>6204</v>
       </c>
       <c r="G7" t="n">
-        <v>2762</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="8">
@@ -619,16 +619,16 @@
         <v>8192</v>
       </c>
       <c r="D8" t="n">
-        <v>8071</v>
+        <v>8200</v>
       </c>
       <c r="E8" t="n">
-        <v>6226</v>
+        <v>7001</v>
       </c>
       <c r="F8" t="n">
-        <v>6218</v>
+        <v>4089</v>
       </c>
       <c r="G8" t="n">
-        <v>2481</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="9">
@@ -642,16 +642,16 @@
         <v>8192</v>
       </c>
       <c r="D9" t="n">
-        <v>7566</v>
+        <v>8198</v>
       </c>
       <c r="E9" t="n">
-        <v>8238</v>
+        <v>8192</v>
       </c>
       <c r="F9" t="n">
-        <v>6079</v>
+        <v>3970</v>
       </c>
       <c r="G9" t="n">
-        <v>2486</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="10">
@@ -665,16 +665,16 @@
         <v>8192</v>
       </c>
       <c r="D10" t="n">
-        <v>8198</v>
+        <v>8192</v>
       </c>
       <c r="E10" t="n">
-        <v>8198</v>
+        <v>8192</v>
       </c>
       <c r="F10" t="n">
-        <v>4059</v>
+        <v>6233</v>
       </c>
       <c r="G10" t="n">
-        <v>1502</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         <v>8192</v>
       </c>
       <c r="E11" t="n">
-        <v>8212</v>
+        <v>8202</v>
       </c>
       <c r="F11" t="n">
-        <v>6080</v>
+        <v>7412</v>
       </c>
       <c r="G11" t="n">
-        <v>1499</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="12">
@@ -711,16 +711,16 @@
         <v>8192</v>
       </c>
       <c r="D12" t="n">
-        <v>8203</v>
+        <v>8196</v>
       </c>
       <c r="E12" t="n">
-        <v>8192</v>
+        <v>8214</v>
       </c>
       <c r="F12" t="n">
-        <v>6254</v>
+        <v>5627</v>
       </c>
       <c r="G12" t="n">
-        <v>1897</v>
+        <v>900</v>
       </c>
     </row>
     <row r="13">
@@ -734,16 +734,16 @@
         <v>8192</v>
       </c>
       <c r="D13" t="n">
-        <v>8192</v>
+        <v>8206</v>
       </c>
       <c r="E13" t="n">
-        <v>8198</v>
+        <v>8192</v>
       </c>
       <c r="F13" t="n">
-        <v>6140</v>
+        <v>6593</v>
       </c>
       <c r="G13" t="n">
-        <v>1502</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="14">
@@ -757,16 +757,16 @@
         <v>8192</v>
       </c>
       <c r="D14" t="n">
-        <v>8192</v>
+        <v>8203</v>
       </c>
       <c r="E14" t="n">
-        <v>8192</v>
+        <v>8198</v>
       </c>
       <c r="F14" t="n">
-        <v>6179</v>
+        <v>4090</v>
       </c>
       <c r="G14" t="n">
-        <v>1773</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="15">
@@ -783,13 +783,13 @@
         <v>8192</v>
       </c>
       <c r="E15" t="n">
-        <v>8220</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>3965</v>
+        <v>6256</v>
       </c>
       <c r="G15" t="n">
-        <v>1724</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="16">
@@ -803,16 +803,16 @@
         <v>8192</v>
       </c>
       <c r="D16" t="n">
-        <v>8203</v>
+        <v>7214</v>
       </c>
       <c r="E16" t="n">
-        <v>8099</v>
+        <v>7753</v>
       </c>
       <c r="F16" t="n">
-        <v>5880</v>
+        <v>6158</v>
       </c>
       <c r="G16" t="n">
-        <v>1532</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="17">
@@ -826,16 +826,16 @@
         <v>8192</v>
       </c>
       <c r="D17" t="n">
-        <v>7758</v>
+        <v>8204</v>
       </c>
       <c r="E17" t="n">
-        <v>8198</v>
+        <v>8192</v>
       </c>
       <c r="F17" t="n">
-        <v>4097</v>
+        <v>7843</v>
       </c>
       <c r="G17" t="n">
-        <v>1917</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="18">
@@ -849,16 +849,16 @@
         <v>8192</v>
       </c>
       <c r="D18" t="n">
-        <v>8192</v>
+        <v>8200</v>
       </c>
       <c r="E18" t="n">
-        <v>8207</v>
+        <v>8192</v>
       </c>
       <c r="F18" t="n">
-        <v>8347</v>
+        <v>3841</v>
       </c>
       <c r="G18" t="n">
-        <v>1515</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="19">
@@ -872,16 +872,16 @@
         <v>8192</v>
       </c>
       <c r="D19" t="n">
-        <v>8192</v>
+        <v>8197</v>
       </c>
       <c r="E19" t="n">
-        <v>7245</v>
+        <v>6583</v>
       </c>
       <c r="F19" t="n">
-        <v>6144</v>
+        <v>5998</v>
       </c>
       <c r="G19" t="n">
-        <v>1411</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="20">
@@ -901,10 +901,10 @@
         <v>8192</v>
       </c>
       <c r="F20" t="n">
-        <v>6136</v>
+        <v>6129</v>
       </c>
       <c r="G20" t="n">
-        <v>1844</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="21">
@@ -918,16 +918,16 @@
         <v>8192</v>
       </c>
       <c r="D21" t="n">
-        <v>6897</v>
+        <v>8192</v>
       </c>
       <c r="E21" t="n">
-        <v>8192</v>
+        <v>8198</v>
       </c>
       <c r="F21" t="n">
-        <v>8293</v>
+        <v>3964</v>
       </c>
       <c r="G21" t="n">
-        <v>2951</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="22">
@@ -944,13 +944,13 @@
         <v>8192</v>
       </c>
       <c r="E22" t="n">
-        <v>8192</v>
+        <v>8201</v>
       </c>
       <c r="F22" t="n">
-        <v>6274</v>
+        <v>5870</v>
       </c>
       <c r="G22" t="n">
-        <v>2919</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="23">
@@ -970,10 +970,10 @@
         <v>8192</v>
       </c>
       <c r="F23" t="n">
-        <v>3970</v>
+        <v>6015</v>
       </c>
       <c r="G23" t="n">
-        <v>1787</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="24">
@@ -987,16 +987,16 @@
         <v>8192</v>
       </c>
       <c r="D24" t="n">
-        <v>8192</v>
+        <v>8203</v>
       </c>
       <c r="E24" t="n">
-        <v>8207</v>
+        <v>8215</v>
       </c>
       <c r="F24" t="n">
-        <v>5588</v>
+        <v>6066</v>
       </c>
       <c r="G24" t="n">
-        <v>3246</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="25">
@@ -1010,16 +1010,16 @@
         <v>8192</v>
       </c>
       <c r="D25" t="n">
-        <v>7896</v>
+        <v>8192</v>
       </c>
       <c r="E25" t="n">
-        <v>7679</v>
+        <v>8192</v>
       </c>
       <c r="F25" t="n">
-        <v>8156</v>
+        <v>6175</v>
       </c>
       <c r="G25" t="n">
-        <v>1766</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="26">
@@ -1033,16 +1033,16 @@
         <v>8192</v>
       </c>
       <c r="D26" t="n">
-        <v>8192</v>
+        <v>8204</v>
       </c>
       <c r="E26" t="n">
-        <v>8212</v>
+        <v>7140</v>
       </c>
       <c r="F26" t="n">
-        <v>6267</v>
+        <v>5863</v>
       </c>
       <c r="G26" t="n">
-        <v>1782</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="27">
@@ -1056,16 +1056,16 @@
         <v>8192</v>
       </c>
       <c r="D27" t="n">
-        <v>8003</v>
+        <v>8197</v>
       </c>
       <c r="E27" t="n">
-        <v>6631</v>
+        <v>8192</v>
       </c>
       <c r="F27" t="n">
-        <v>8237</v>
+        <v>6519</v>
       </c>
       <c r="G27" t="n">
-        <v>3222</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="28">
@@ -1079,16 +1079,16 @@
         <v>8192</v>
       </c>
       <c r="D28" t="n">
-        <v>8204</v>
+        <v>8192</v>
       </c>
       <c r="E28" t="n">
-        <v>7069</v>
+        <v>8207</v>
       </c>
       <c r="F28" t="n">
-        <v>4088</v>
+        <v>8300</v>
       </c>
       <c r="G28" t="n">
-        <v>1893</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="29">
@@ -1102,16 +1102,16 @@
         <v>8192</v>
       </c>
       <c r="D29" t="n">
-        <v>8204</v>
+        <v>8195</v>
       </c>
       <c r="E29" t="n">
-        <v>8027</v>
+        <v>8212</v>
       </c>
       <c r="F29" t="n">
-        <v>6438</v>
+        <v>6230</v>
       </c>
       <c r="G29" t="n">
-        <v>1853</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="30">
@@ -1125,16 +1125,16 @@
         <v>8192</v>
       </c>
       <c r="D30" t="n">
-        <v>7192</v>
+        <v>8192</v>
       </c>
       <c r="E30" t="n">
         <v>8192</v>
       </c>
       <c r="F30" t="n">
-        <v>6249</v>
+        <v>6006</v>
       </c>
       <c r="G30" t="n">
-        <v>1938</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="31">
@@ -1148,16 +1148,16 @@
         <v>8192</v>
       </c>
       <c r="D31" t="n">
-        <v>6662</v>
+        <v>8201</v>
       </c>
       <c r="E31" t="n">
-        <v>8212</v>
+        <v>8226</v>
       </c>
       <c r="F31" t="n">
-        <v>6623</v>
+        <v>6502</v>
       </c>
       <c r="G31" t="n">
-        <v>2907</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="32">
@@ -1171,16 +1171,16 @@
         <v>8192</v>
       </c>
       <c r="D32" t="n">
-        <v>8192</v>
+        <v>8108</v>
       </c>
       <c r="E32" t="n">
-        <v>8204</v>
+        <v>7426</v>
       </c>
       <c r="F32" t="n">
-        <v>6502</v>
+        <v>4058</v>
       </c>
       <c r="G32" t="n">
-        <v>1788</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="33">
@@ -1194,16 +1194,16 @@
         <v>8192</v>
       </c>
       <c r="D33" t="n">
-        <v>8203</v>
+        <v>8208</v>
       </c>
       <c r="E33" t="n">
-        <v>8159</v>
+        <v>8192</v>
       </c>
       <c r="F33" t="n">
-        <v>4077</v>
+        <v>4081</v>
       </c>
       <c r="G33" t="n">
-        <v>1886</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="34">
@@ -1220,13 +1220,13 @@
         <v>8192</v>
       </c>
       <c r="E34" t="n">
-        <v>7951</v>
+        <v>8209</v>
       </c>
       <c r="F34" t="n">
-        <v>5876</v>
+        <v>6374</v>
       </c>
       <c r="G34" t="n">
-        <v>2688</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="35">
@@ -1240,16 +1240,16 @@
         <v>8192</v>
       </c>
       <c r="D35" t="n">
-        <v>8200</v>
+        <v>8192</v>
       </c>
       <c r="E35" t="n">
-        <v>8192</v>
+        <v>7032</v>
       </c>
       <c r="F35" t="n">
-        <v>5603</v>
+        <v>5634</v>
       </c>
       <c r="G35" t="n">
-        <v>1892</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="36">
@@ -1263,16 +1263,16 @@
         <v>8192</v>
       </c>
       <c r="D36" t="n">
-        <v>7337</v>
+        <v>8183</v>
       </c>
       <c r="E36" t="n">
         <v>8192</v>
       </c>
       <c r="F36" t="n">
-        <v>3960</v>
+        <v>6140</v>
       </c>
       <c r="G36" t="n">
-        <v>2505</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="37">
@@ -1292,10 +1292,10 @@
         <v>8192</v>
       </c>
       <c r="F37" t="n">
-        <v>3970</v>
+        <v>5999</v>
       </c>
       <c r="G37" t="n">
-        <v>2388</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="38">
@@ -1309,16 +1309,16 @@
         <v>8192</v>
       </c>
       <c r="D38" t="n">
-        <v>8192</v>
+        <v>8200</v>
       </c>
       <c r="E38" t="n">
-        <v>6971</v>
+        <v>6624</v>
       </c>
       <c r="F38" t="n">
-        <v>3581</v>
+        <v>6273</v>
       </c>
       <c r="G38" t="n">
-        <v>1012</v>
+        <v>996</v>
       </c>
     </row>
     <row r="39">
@@ -1332,16 +1332,16 @@
         <v>8192</v>
       </c>
       <c r="D39" t="n">
-        <v>8192</v>
+        <v>7933</v>
       </c>
       <c r="E39" t="n">
-        <v>8192</v>
+        <v>8200</v>
       </c>
       <c r="F39" t="n">
-        <v>6561</v>
+        <v>6127</v>
       </c>
       <c r="G39" t="n">
-        <v>1914</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="40">
@@ -1355,16 +1355,16 @@
         <v>8192</v>
       </c>
       <c r="D40" t="n">
-        <v>8192</v>
+        <v>8201</v>
       </c>
       <c r="E40" t="n">
-        <v>8201</v>
+        <v>7126</v>
       </c>
       <c r="F40" t="n">
         <v>6107</v>
       </c>
       <c r="G40" t="n">
-        <v>1944</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="41">
@@ -1378,16 +1378,16 @@
         <v>8192</v>
       </c>
       <c r="D41" t="n">
-        <v>8192</v>
+        <v>7940</v>
       </c>
       <c r="E41" t="n">
         <v>8192</v>
       </c>
       <c r="F41" t="n">
-        <v>7503</v>
+        <v>6123</v>
       </c>
       <c r="G41" t="n">
-        <v>1020</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="42">
@@ -1401,16 +1401,16 @@
         <v>8192</v>
       </c>
       <c r="D42" t="n">
-        <v>8192</v>
+        <v>8209</v>
       </c>
       <c r="E42" t="n">
-        <v>8074</v>
+        <v>7394</v>
       </c>
       <c r="F42" t="n">
-        <v>6372</v>
+        <v>6127</v>
       </c>
       <c r="G42" t="n">
-        <v>1778</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="43">
@@ -1427,13 +1427,13 @@
         <v>8192</v>
       </c>
       <c r="E43" t="n">
-        <v>6698</v>
+        <v>7157</v>
       </c>
       <c r="F43" t="n">
-        <v>8427</v>
+        <v>6332</v>
       </c>
       <c r="G43" t="n">
-        <v>1788</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="44">
@@ -1447,16 +1447,16 @@
         <v>8192</v>
       </c>
       <c r="D44" t="n">
-        <v>8192</v>
+        <v>8204</v>
       </c>
       <c r="E44" t="n">
-        <v>6665</v>
+        <v>7148</v>
       </c>
       <c r="F44" t="n">
-        <v>6006</v>
+        <v>6210</v>
       </c>
       <c r="G44" t="n">
-        <v>1022</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="45">
@@ -1470,16 +1470,16 @@
         <v>8192</v>
       </c>
       <c r="D45" t="n">
-        <v>8207</v>
+        <v>8199</v>
       </c>
       <c r="E45" t="n">
-        <v>8207</v>
+        <v>8198</v>
       </c>
       <c r="F45" t="n">
-        <v>5946</v>
+        <v>6118</v>
       </c>
       <c r="G45" t="n">
-        <v>1502</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="46">
@@ -1493,16 +1493,16 @@
         <v>8192</v>
       </c>
       <c r="D46" t="n">
-        <v>8201</v>
+        <v>8192</v>
       </c>
       <c r="E46" t="n">
-        <v>7890</v>
+        <v>7378</v>
       </c>
       <c r="F46" t="n">
-        <v>6195</v>
+        <v>6055</v>
       </c>
       <c r="G46" t="n">
-        <v>1010</v>
+        <v>772</v>
       </c>
     </row>
     <row r="47">
@@ -1516,21 +1516,21 @@
         <v>8192</v>
       </c>
       <c r="D47" t="n">
-        <v>8200</v>
+        <v>8201</v>
       </c>
       <c r="E47" t="n">
         <v>8192</v>
       </c>
       <c r="F47" t="n">
-        <v>6484</v>
+        <v>6373</v>
       </c>
       <c r="G47" t="n">
-        <v>2496</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>8194</v>
+        <v>8192</v>
       </c>
       <c r="B48" t="n">
         <v>8192</v>
@@ -1545,10 +1545,10 @@
         <v>8192</v>
       </c>
       <c r="F48" t="n">
-        <v>6157</v>
+        <v>4077</v>
       </c>
       <c r="G48" t="n">
-        <v>1786</v>
+        <v>964</v>
       </c>
     </row>
     <row r="49">
@@ -1562,16 +1562,16 @@
         <v>8192</v>
       </c>
       <c r="D49" t="n">
-        <v>8192</v>
+        <v>8195</v>
       </c>
       <c r="E49" t="n">
-        <v>8198</v>
+        <v>8192</v>
       </c>
       <c r="F49" t="n">
-        <v>6065</v>
+        <v>6011</v>
       </c>
       <c r="G49" t="n">
-        <v>1766</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="50">
@@ -1585,16 +1585,16 @@
         <v>8192</v>
       </c>
       <c r="D50" t="n">
-        <v>6611</v>
+        <v>7255</v>
       </c>
       <c r="E50" t="n">
-        <v>8198</v>
+        <v>8192</v>
       </c>
       <c r="F50" t="n">
-        <v>8216</v>
+        <v>4086</v>
       </c>
       <c r="G50" t="n">
-        <v>1515</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="51">
@@ -1608,16 +1608,16 @@
         <v>8192</v>
       </c>
       <c r="D51" t="n">
-        <v>8192</v>
+        <v>7907</v>
       </c>
       <c r="E51" t="n">
-        <v>7572</v>
+        <v>8192</v>
       </c>
       <c r="F51" t="n">
-        <v>6058</v>
+        <v>4032</v>
       </c>
       <c r="G51" t="n">
-        <v>2508</v>
+        <v>3181</v>
       </c>
     </row>
   </sheetData>
